--- a/nova.xlsx
+++ b/nova.xlsx
@@ -2,41 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="10"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,7 +39,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -56,33 +55,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -155,14 +152,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="LibreOffice">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr lastClr="ffffff" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -189,149 +186,338 @@
         <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>nome</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>dia nasc</t>
+          <t>idade</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>idade</t>
+          <t>sexo</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>marcos</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>49</v>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>faisca</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="B3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pitoca</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>feminino</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPágina &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nova.xlsx
+++ b/nova.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>compra direta de material de consumo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nova.xlsx
+++ b/nova.xlsx
@@ -27,7 +27,7 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -68,6 +68,15 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -440,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +457,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>nome</t>
@@ -464,13 +473,13 @@
           <t>idade</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>sexo</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>marcos</t>
@@ -479,13 +488,13 @@
       <c r="B2" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>masculino</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>faisca</t>
@@ -494,24 +503,22 @@
       <c r="B3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>feminino</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>pitoca</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>feminino</t>
         </is>
@@ -525,7 +532,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>compra direta de material de consumo</t>
+          <t>solicitacao de registro de preço</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>solicitacao de registro de preço</t>
         </is>
       </c>
     </row>

--- a/nova.xlsx
+++ b/nova.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,18 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>compra direta</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nova.xlsx
+++ b/nova.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,18 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>compra direta</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
